--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -187,6 +187,12 @@
     <t xml:space="preserve">Viet Chi</t>
   </si>
   <si>
+    <t xml:space="preserve">Université Gustace Eiffel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perso.math.u-pem.fr/tran.viet-chi/</t>
+  </si>
+  <si>
     <t xml:space="preserve">viet-chi.tran@inria.fr </t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t xml:space="preserve">Marta</t>
   </si>
   <si>
+    <t xml:space="preserve">HU Berlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">daimarta@hu-berlin.de</t>
   </si>
   <si>
@@ -205,15 +214,27 @@
     <t xml:space="preserve">Chaitanya</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Würzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/</t>
+  </si>
+  <si>
     <t xml:space="preserve">chaitanya.gokhale@uni-wuerzburg.de</t>
   </si>
   <si>
-    <t xml:space="preserve">Veber</t>
+    <t xml:space="preserve">Véber</t>
   </si>
   <si>
     <t xml:space="preserve">Amandine</t>
   </si>
   <si>
+    <t xml:space="preserve">CNRS, Université de Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.fr/citations?user=Da98zXMAAAAJ&amp;hl=fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">amandine.veber@parisdescartes.fr</t>
   </si>
   <si>
@@ -223,6 +244,12 @@
     <t xml:space="preserve">Loren</t>
   </si>
   <si>
+    <t xml:space="preserve">Université Grenoble Alpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www-fourier.ujf-grenoble.fr/~coquilll/</t>
+  </si>
+  <si>
     <t xml:space="preserve">loren.coquille@univ-grenoble-alpes.fr</t>
   </si>
   <si>
@@ -232,18 +259,30 @@
     <t xml:space="preserve">Aurélien</t>
   </si>
   <si>
+    <t xml:space="preserve">TU Munich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.professoren.tum.de/tellier-aurelien</t>
+  </si>
+  <si>
     <t xml:space="preserve">aurelien.tellier@tum.de</t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
   </si>
   <si>
-    <t xml:space="preserve">Freund?</t>
+    <t xml:space="preserve">Freund</t>
   </si>
   <si>
     <t xml:space="preserve">Fabian</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Leicester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://le.ac.uk/people/fabian-freund</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff95@leicester.ac.uk</t>
   </si>
   <si>
@@ -253,6 +292,12 @@
     <t xml:space="preserve">Vianney</t>
   </si>
   <si>
+    <t xml:space="preserve">UMPA Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney</t>
+  </si>
+  <si>
     <t xml:space="preserve">vianney.brouard@ens-lyon.fr</t>
   </si>
   <si>
@@ -262,6 +307,12 @@
     <t xml:space="preserve">Franz</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Tübingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab</t>
+  </si>
+  <si>
     <t xml:space="preserve">franz.baumdicker@uni-tuebingen.de</t>
   </si>
   <si>
@@ -271,6 +322,12 @@
     <t xml:space="preserve">Florin</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://homepage.univie.ac.at/florin.boenkost/</t>
+  </si>
+  <si>
     <t xml:space="preserve">florin.boenkost@univie.ac.at</t>
   </si>
   <si>
@@ -280,6 +337,9 @@
     <t xml:space="preserve">Arne</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.evolbio.mpg.de/person/12087/15650</t>
+  </si>
+  <si>
     <t xml:space="preserve">traulsen@evolbio.mpg.de</t>
   </si>
   <si>
@@ -289,6 +349,12 @@
     <t xml:space="preserve">Fernando</t>
   </si>
   <si>
+    <t xml:space="preserve">BOKU University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://boku.ac.at/personen/person/C55549F0B13A76B2</t>
+  </si>
+  <si>
     <t xml:space="preserve">fcordero@groupwise.boku.ac.at</t>
   </si>
   <si>
@@ -298,6 +364,12 @@
     <t xml:space="preserve">Matthias</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Mainz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.staff.uni-mainz.de/birkner/</t>
+  </si>
+  <si>
     <t xml:space="preserve">birkner@uni-mainz.de</t>
   </si>
   <si>
@@ -316,12 +388,21 @@
     <t xml:space="preserve">Dana</t>
   </si>
   <si>
+    <t xml:space="preserve">https://tecoevo.github.io/people/dana/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ortgiese</t>
   </si>
   <si>
     <t xml:space="preserve">Marcel</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://people.bath.ac.uk/ma2mo/</t>
+  </si>
+  <si>
     <t xml:space="preserve">m.ortgiese@bath.ac.uk</t>
   </si>
   <si>
@@ -331,6 +412,9 @@
     <t xml:space="preserve">Emmanuel</t>
   </si>
   <si>
+    <t xml:space="preserve">https://homepage.univie.ac.at/emmanuel.schertzer/</t>
+  </si>
+  <si>
     <t xml:space="preserve">emmanuel.schertzer@gmail.com</t>
   </si>
   <si>
@@ -340,6 +424,9 @@
     <t xml:space="preserve">Silvia</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.evolbio.mpg.de/person/54680/2163</t>
+  </si>
+  <si>
     <t xml:space="preserve">ja/Absage Alternative: Emil Mallmin</t>
   </si>
   <si>
@@ -349,6 +436,9 @@
     <t xml:space="preserve">Maite</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www2.mathematik.hu-berlin.de/~wilkemai/</t>
+  </si>
+  <si>
     <t xml:space="preserve">ja, vielleicht </t>
   </si>
   <si>
@@ -358,18 +448,36 @@
     <t xml:space="preserve">Julie</t>
   </si>
   <si>
+    <t xml:space="preserve">Université de Franche-Comté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jtourniaire.github.io/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leman</t>
   </si>
   <si>
     <t xml:space="preserve">Helene</t>
   </si>
   <si>
+    <t xml:space="preserve">ENS Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://perso.ens-lyon.fr/helene.leman/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Krug</t>
   </si>
   <si>
     <t xml:space="preserve">Joachim</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Cologne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thp.uni-koeln.de/krug/</t>
+  </si>
+  <si>
     <t xml:space="preserve">krug@thp.uni-koeln.de</t>
   </si>
   <si>
@@ -379,12 +487,21 @@
     <t xml:space="preserve">Apolline</t>
   </si>
   <si>
+    <t xml:space="preserve">INRAE Avignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.normalesup.org/~alouvet/home.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Penington</t>
   </si>
   <si>
     <t xml:space="preserve">Sarah</t>
   </si>
   <si>
+    <t xml:space="preserve">https://people.bath.ac.uk/sp2355/</t>
+  </si>
+  <si>
     <t xml:space="preserve">sp2355@bath.ac.uk</t>
   </si>
   <si>
@@ -392,6 +509,12 @@
   </si>
   <si>
     <t xml:space="preserve">Meike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bielefeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209</t>
   </si>
   <si>
     <t xml:space="preserve">meike.wittmann@uni-bielefeld.de</t>
@@ -519,7 +642,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -575,6 +698,7 @@
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -610,6 +734,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -645,6 +770,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -682,6 +808,7 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -709,6 +836,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -744,6 +872,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -775,6 +904,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -808,6 +938,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -816,13 +947,17 @@
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>35</v>
@@ -839,21 +974,24 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
@@ -868,21 +1006,26 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>35</v>
@@ -899,21 +1042,26 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>35</v>
@@ -930,21 +1078,26 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>35</v>
@@ -961,21 +1114,26 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>35</v>
@@ -987,26 +1145,31 @@
         <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>25</v>
@@ -1023,21 +1186,26 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>25</v>
@@ -1054,21 +1222,26 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>25</v>
@@ -1085,21 +1258,26 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>25</v>
@@ -1116,21 +1294,26 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>35</v>
@@ -1147,21 +1330,26 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>35</v>
@@ -1178,21 +1366,26 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>35</v>
@@ -1209,13 +1402,14 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1223,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>35</v>
@@ -1240,16 +1434,21 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1269,21 +1468,26 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>35</v>
@@ -1300,21 +1504,26 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>35</v>
@@ -1331,16 +1540,21 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>47</v>
@@ -1360,16 +1574,21 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>47</v>
@@ -1389,16 +1608,21 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1418,16 +1642,21 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1447,21 +1676,26 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>35</v>
@@ -1473,21 +1707,26 @@
         <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
@@ -1507,21 +1746,26 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>35</v>
@@ -1538,21 +1782,26 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>35</v>
@@ -1569,13 +1818,14 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1585,11 +1835,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -1630,7 +1881,30 @@
     <hyperlink ref="D6" r:id="rId5" display="https://www.smalldata-initiative.de/people/heinzel-carola/"/>
     <hyperlink ref="F6" r:id="rId6" display="carola.heinzel@stochastik.uni-freiburg.de"/>
     <hyperlink ref="D8" r:id="rId7" display="https://www.stats.ox.ac.uk/people/dr-felix-foutel-rodier"/>
-    <hyperlink ref="F33" r:id="rId8" display="meike.wittmann@uni-bielefeld.de"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://perso.math.u-pem.fr/tran.viet-chi/"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://scholar.google.fr/citations?user=Da98zXMAAAAJ&amp;hl=fr"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://www-fourier.ujf-grenoble.fr/~coquilll/"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://www.professoren.tum.de/tellier-aurelien"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://le.ac.uk/people/fabian-freund"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://homepage.univie.ac.at/florin.boenkost/"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://www.evolbio.mpg.de/person/12087/15650"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://www.staff.uni-mainz.de/birkner/"/>
+    <hyperlink ref="D23" r:id="rId20" display="https://tecoevo.github.io/people/dana/"/>
+    <hyperlink ref="D24" r:id="rId21" display="https://people.bath.ac.uk/ma2mo/"/>
+    <hyperlink ref="D25" r:id="rId22" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
+    <hyperlink ref="D26" r:id="rId23" display="https://www.evolbio.mpg.de/person/54680/2163"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://www2.mathematik.hu-berlin.de/~wilkemai/"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://jtourniaire.github.io/"/>
+    <hyperlink ref="D29" r:id="rId26" display="https://perso.ens-lyon.fr/helene.leman/"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://www.thp.uni-koeln.de/krug/"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://www.normalesup.org/~alouvet/home.html"/>
+    <hyperlink ref="D32" r:id="rId29" display="https://people.bath.ac.uk/sp2355/"/>
+    <hyperlink ref="D33" r:id="rId30" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
+    <hyperlink ref="F33" r:id="rId31" display="meike.wittmann@uni-bielefeld.de"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="159">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Florence.bansept@imm.cnrs.fr</t>
   </si>
   <si>
+    <t xml:space="preserve">eventuell mit Partner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wakolbinger</t>
   </si>
   <si>
@@ -193,9 +196,15 @@
     <t xml:space="preserve">HU Berlin</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees</t>
+  </si>
+  <si>
     <t xml:space="preserve">daimarta@hu-berlin.de</t>
   </si>
   <si>
+    <t xml:space="preserve">mit Partner (nimmt auch an Konferenz teil)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gokhale</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t xml:space="preserve">chaitanya.gokhale@uni-wuerzburg.de</t>
   </si>
   <si>
+    <t xml:space="preserve">mit Partnerin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Freund</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
     <t xml:space="preserve">vianney.brouard@ens-lyon.fr</t>
   </si>
   <si>
+    <t xml:space="preserve">bleibt noch in Lübeck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baumdicker</t>
   </si>
   <si>
@@ -428,6 +443,60 @@
   </si>
   <si>
     <t xml:space="preserve">ETH Zürich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shummel@hest.ethz.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgdas.work@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez-Casanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://search.asu.edu/profile/5115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adrian.gonzalez.casanova.soberon@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Potsdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alexzass.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zass@wias-berlin.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein Vortrag, Begleitung von Marta dai Pra</t>
   </si>
 </sst>
 </file>
@@ -531,16 +600,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -549,6 +614,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -567,114 +636,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -684,7 +647,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="45.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
@@ -698,7 +661,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,1000 +700,1074 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="n">
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="4" t="n">
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="4" t="n">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="4" t="n">
+      <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="4" t="n">
+      <c r="A16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="3"/>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="4" t="n">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4" t="n">
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="4" t="n">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="4" t="n">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="4" t="n">
+      <c r="A23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3"/>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="4" t="n">
+      <c r="F25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4" t="n">
+      <c r="A26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
+    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1738,7 +1775,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1784,30 +1821,35 @@
     <hyperlink ref="F6" r:id="rId6" display="carola.heinzel@stochastik.uni-freiburg.de"/>
     <hyperlink ref="D7" r:id="rId7" display="https://www.stats.ox.ac.uk/people/dr-felix-foutel-rodier"/>
     <hyperlink ref="D8" r:id="rId8" display="https://perso.math.u-pem.fr/tran.viet-chi/"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://le.ac.uk/people/fabian-freund"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://homepage.univie.ac.at/florin.boenkost/"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.evolbio.mpg.de/person/12087/15650"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.staff.uni-mainz.de/birkner/"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://tecoevo.github.io/people/dana/"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://people.bath.ac.uk/ma2mo/"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://jtourniaire.github.io/"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://perso.ens-lyon.fr/helene.leman/"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://www.thp.uni-koeln.de/krug/"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://www.normalesup.org/~alouvet/home.html"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
-    <hyperlink ref="F25" r:id="rId25" display="meike.wittmann@uni-bielefeld.de"/>
+    <hyperlink ref="D9" r:id="rId9" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
+    <hyperlink ref="D10" r:id="rId10" display="https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/"/>
+    <hyperlink ref="D11" r:id="rId11" display="https://le.ac.uk/people/fabian-freund"/>
+    <hyperlink ref="D12" r:id="rId12" display="https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney"/>
+    <hyperlink ref="D13" r:id="rId13" display="https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab"/>
+    <hyperlink ref="D14" r:id="rId14" display="https://homepage.univie.ac.at/florin.boenkost/"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://www.evolbio.mpg.de/person/12087/15650"/>
+    <hyperlink ref="D16" r:id="rId16" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
+    <hyperlink ref="D17" r:id="rId17" display="https://www.staff.uni-mainz.de/birkner/"/>
+    <hyperlink ref="D18" r:id="rId18" display="https://tecoevo.github.io/people/dana/"/>
+    <hyperlink ref="D19" r:id="rId19" display="https://people.bath.ac.uk/ma2mo/"/>
+    <hyperlink ref="D20" r:id="rId20" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
+    <hyperlink ref="D21" r:id="rId21" display="https://jtourniaire.github.io/"/>
+    <hyperlink ref="D22" r:id="rId22" display="https://perso.ens-lyon.fr/helene.leman/"/>
+    <hyperlink ref="D23" r:id="rId23" display="https://www.thp.uni-koeln.de/krug/"/>
+    <hyperlink ref="D24" r:id="rId24" display="https://www.normalesup.org/~alouvet/home.html"/>
+    <hyperlink ref="D25" r:id="rId25" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
+    <hyperlink ref="F25" r:id="rId26" display="meike.wittmann@uni-bielefeld.de"/>
+    <hyperlink ref="D26" r:id="rId27" display="https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html"/>
+    <hyperlink ref="D27" r:id="rId28" display="https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html"/>
+    <hyperlink ref="D28" r:id="rId29" display="https://search.asu.edu/profile/5115356"/>
+    <hyperlink ref="D29" r:id="rId30" display="https://www.alexzass.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="215">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Duration</t>
   </si>
   <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t xml:space="preserve">Zusage</t>
   </si>
   <si>
-    <t xml:space="preserve">Kommentar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uecker</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">Florence.bansept@imm.cnrs.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">eventuell mit Partner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wakolbinger</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t xml:space="preserve">ja, Zusage, kommt mit Traudi</t>
   </si>
   <si>
-    <t xml:space="preserve">mit Traudi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buckland</t>
   </si>
   <si>
@@ -136,6 +130,9 @@
     <t xml:space="preserve">https://research.uni-luebeck.de/de/persons/matthew-buckland</t>
   </si>
   <si>
+    <t xml:space="preserve">matthew.buckland@uni-luebeck.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heinzel</t>
   </si>
   <si>
@@ -157,7 +154,7 @@
     <t xml:space="preserve">Foutel-Rodier</t>
   </si>
   <si>
-    <t xml:space="preserve">Felix</t>
+    <t xml:space="preserve">Félix</t>
   </si>
   <si>
     <t xml:space="preserve">University of Oxford</t>
@@ -187,7 +184,7 @@
     <t xml:space="preserve">viet-chi.tran@inria.fr </t>
   </si>
   <si>
-    <t xml:space="preserve">dai Pra</t>
+    <t xml:space="preserve">Dai Pra</t>
   </si>
   <si>
     <t xml:space="preserve">Marta</t>
@@ -202,9 +199,6 @@
     <t xml:space="preserve">daimarta@hu-berlin.de</t>
   </si>
   <si>
-    <t xml:space="preserve">mit Partner (nimmt auch an Konferenz teil)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gokhale</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t xml:space="preserve">chaitanya.gokhale@uni-wuerzburg.de</t>
   </si>
   <si>
-    <t xml:space="preserve">mit Partnerin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Freund</t>
   </si>
   <si>
@@ -244,7 +235,7 @@
     <t xml:space="preserve">Vianney</t>
   </si>
   <si>
-    <t xml:space="preserve">UMPA Lyon</t>
+    <t xml:space="preserve">Bath</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney</t>
@@ -253,9 +244,6 @@
     <t xml:space="preserve">vianney.brouard@ens-lyon.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">bleibt noch in Lübeck</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baumdicker</t>
   </si>
   <si>
@@ -331,13 +319,19 @@
     <t xml:space="preserve">birkner@uni-mainz.de</t>
   </si>
   <si>
-    <t xml:space="preserve">Lauenroth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tecoevo.github.io/people/dana/</t>
+    <t xml:space="preserve">Esser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole polytechnique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.polytechnique.edu/annuaire/esser-manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manuel.esser@polytechnique.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Ortgiese</t>
@@ -379,6 +373,9 @@
     <t xml:space="preserve">https://jtourniaire.github.io/</t>
   </si>
   <si>
+    <t xml:space="preserve">julie.tourniaire@univ-fcomte.fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leman</t>
   </si>
   <si>
@@ -391,112 +388,283 @@
     <t xml:space="preserve">https://perso.ens-lyon.fr/helene.leman/</t>
   </si>
   <si>
-    <t xml:space="preserve">Krug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joachim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Cologne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thp.uni-koeln.de/krug/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krug@thp.uni-koeln.de</t>
+    <t xml:space="preserve">helene.leman@inria.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louvet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apolline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INRAE Avignon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.normalesup.org/~alouvet/home.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apolline.louvet@inrae.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wittmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bielefeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meike.wittmann@uni-bielefeld.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hummel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH Zürich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shummel@hest.ethz.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgdas.work@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez Casanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://search.asu.edu/profile/5115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adrian.gonzalez.casanova.soberon@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uni-frankfurt.de/117025373/Prof_Dr_Jochen_Blath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blath@math.uni-frankfurt.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfaffelhuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.math.uni-freiburg.de/cd2021/pfaffelhuber_de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.p@stochastik.uni-freiburg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokalyuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.math.uni-luebeck.de/mitarbeiter/pokalyuk/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cornelia.pokalyuk@uni-luebeck.de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nava Trejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Ernesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julio.ernesto.nava.trejo@hu-berlin.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIAS Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wias-berlin.de/~zass/?lang=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zass@wias-berlin.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sascha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://research.uni-luebeck.de/de/persons/sascha-josef-franck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sascha.franck@uni-luebeck.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeosun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univesity of Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pfaffelh.github.io/hp/adeosun.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samuel.adeosun@stochastik.uni-freiburg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mi.fu-berlin.de/math/groups/stoch/members/PostDoc/Kern_J.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kern@wias-berlin.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yannic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univerity of Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ufind.univie.ac.at/de/person.html?id=1004358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yannic.wenzel@univie.ac.at</t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
   </si>
   <si>
-    <t xml:space="preserve">Louvet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apolline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INRAE Avignon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.normalesup.org/~alouvet/home.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wittmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bielefeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meike.wittmann@uni-bielefeld.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hummel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH Zürich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shummel@hest.ethz.ch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Bern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sgdas.work@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalez-Casanova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona State University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://search.asu.edu/profile/5115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adrian.gonzalez.casanova.soberon@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Potsdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alexzass.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zass@wias-berlin.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kein Vortrag, Begleitung von Marta dai Pra</t>
+    <t xml:space="preserve">Da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w-dasilva.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william.da.silva@univie.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kein Poster?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU Darmstadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johann.bauer@tu-darmstadt.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanksha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.evolbio.mpg.de/person/137852/3753875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh@evolbio.mpg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Njiasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTU Cottbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.b-tu.de/fg-wirtschaftsmathematik/forschung/vortraege/msc-ibrahim-mbouandi-njiasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbouaibr@b-tu.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.evolbio.mpg.de/person/137857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relekar@evolbio.mpg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spigno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spigno@evolbio.mpg.de</t>
   </si>
 </sst>
 </file>
@@ -506,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -539,13 +707,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -591,7 +752,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,14 +777,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,15 +789,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,11 +916,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -699,7 +958,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -721,21 +980,21 @@
       <c r="G2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -758,704 +1017,730 @@
         <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
       <c r="G5" s="2" t="n">
         <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>25</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5"/>
       <c r="G18" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>35</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>123</v>
       </c>
@@ -1469,63 +1754,67 @@
         <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2" t="s">
-        <v>49</v>
+      <c r="F24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -1539,29 +1828,29 @@
         <v>136</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>138</v>
       </c>
@@ -1575,7 +1864,7 @@
         <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>142</v>
@@ -1583,19 +1872,23 @@
       <c r="G26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
@@ -1609,7 +1902,7 @@
         <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>147</v>
@@ -1618,20 +1911,22 @@
         <v>25</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>148</v>
       </c>
@@ -1639,177 +1934,417 @@
         <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>25</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>158</v>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="3"/>
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="3"/>
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="3"/>
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="3"/>
+    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="3"/>
+    <row r="34" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1830,23 +2365,34 @@
     <hyperlink ref="D15" r:id="rId15" display="https://www.evolbio.mpg.de/person/12087/15650"/>
     <hyperlink ref="D16" r:id="rId16" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
     <hyperlink ref="D17" r:id="rId17" display="https://www.staff.uni-mainz.de/birkner/"/>
-    <hyperlink ref="D18" r:id="rId18" display="https://tecoevo.github.io/people/dana/"/>
+    <hyperlink ref="D18" r:id="rId18" display="https://www.polytechnique.edu/annuaire/esser-manuel"/>
     <hyperlink ref="D19" r:id="rId19" display="https://people.bath.ac.uk/ma2mo/"/>
     <hyperlink ref="D20" r:id="rId20" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
     <hyperlink ref="D21" r:id="rId21" display="https://jtourniaire.github.io/"/>
     <hyperlink ref="D22" r:id="rId22" display="https://perso.ens-lyon.fr/helene.leman/"/>
-    <hyperlink ref="D23" r:id="rId23" display="https://www.thp.uni-koeln.de/krug/"/>
-    <hyperlink ref="D24" r:id="rId24" display="https://www.normalesup.org/~alouvet/home.html"/>
-    <hyperlink ref="D25" r:id="rId25" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
-    <hyperlink ref="F25" r:id="rId26" display="meike.wittmann@uni-bielefeld.de"/>
-    <hyperlink ref="D26" r:id="rId27" display="https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html"/>
-    <hyperlink ref="D27" r:id="rId28" display="https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html"/>
-    <hyperlink ref="D28" r:id="rId29" display="https://search.asu.edu/profile/5115356"/>
-    <hyperlink ref="D29" r:id="rId30" display="https://www.alexzass.com/"/>
+    <hyperlink ref="D23" r:id="rId23" display="https://www.normalesup.org/~alouvet/home.html"/>
+    <hyperlink ref="D24" r:id="rId24" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
+    <hyperlink ref="F24" r:id="rId25" display="meike.wittmann@uni-bielefeld.de"/>
+    <hyperlink ref="D25" r:id="rId26" display="https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html"/>
+    <hyperlink ref="D26" r:id="rId27" display="https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html"/>
+    <hyperlink ref="D27" r:id="rId28" display="https://search.asu.edu/profile/5115356"/>
+    <hyperlink ref="D28" r:id="rId29" display="https://www.uni-frankfurt.de/117025373/Prof_Dr_Jochen_Blath"/>
+    <hyperlink ref="D29" r:id="rId30" display="https://www.math.uni-freiburg.de/cd2021/pfaffelhuber_de/"/>
+    <hyperlink ref="D30" r:id="rId31" display="https://www.math.uni-luebeck.de/mitarbeiter/pokalyuk/index.php"/>
+    <hyperlink ref="D31" r:id="rId32" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
+    <hyperlink ref="D32" r:id="rId33" display="https://www.wias-berlin.de/~zass/?lang=0"/>
+    <hyperlink ref="D33" r:id="rId34" display="https://research.uni-luebeck.de/de/persons/sascha-josef-franck"/>
+    <hyperlink ref="D34" r:id="rId35" display="https://pfaffelh.github.io/hp/adeosun.html"/>
+    <hyperlink ref="D35" r:id="rId36" display="https://www.mi.fu-berlin.de/math/groups/stoch/members/PostDoc/Kern_J.html"/>
+    <hyperlink ref="D36" r:id="rId37" display="https://ufind.univie.ac.at/de/person.html?id=1004358"/>
+    <hyperlink ref="D37" r:id="rId38" display="https://w-dasilva.github.io/"/>
+    <hyperlink ref="D39" r:id="rId39" display="https://www.evolbio.mpg.de/person/137852/3753875"/>
+    <hyperlink ref="D40" r:id="rId40" display="https://www.b-tu.de/fg-wirtschaftsmathematik/forschung/vortraege/msc-ibrahim-mbouandi-njiasse"/>
+    <hyperlink ref="D41" r:id="rId41" display="https://www.evolbio.mpg.de/person/137857"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -169,10 +169,10 @@
     <t xml:space="preserve">25?</t>
   </si>
   <si>
-    <t xml:space="preserve">Tran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Chi</t>
+    <t xml:space="preserve">Viet Tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi</t>
   </si>
   <si>
     <t xml:space="preserve">Université Gustave Eiffel</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Leman</t>
   </si>
   <si>
-    <t xml:space="preserve">Helene</t>
+    <t xml:space="preserve">Hélène</t>
   </si>
   <si>
     <t xml:space="preserve">ENS Lyon</t>
@@ -903,7 +903,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -920,7 +920,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>

--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="216">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Chi</t>
   </si>
   <si>
-    <t xml:space="preserve">Université Gustave Eiffel</t>
+    <t xml:space="preserve">INRIA Lille</t>
   </si>
   <si>
     <t xml:space="preserve">https://perso.math.u-pem.fr/tran.viet-chi/</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Vianney</t>
   </si>
   <si>
-    <t xml:space="preserve">Bath</t>
+    <t xml:space="preserve">University of Bath</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Manuel</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecole polytechnique</t>
+    <t xml:space="preserve">École Polytechnique</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.polytechnique.edu/annuaire/esser-manuel</t>
@@ -340,9 +340,6 @@
     <t xml:space="preserve">Marcel</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Bath</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://people.bath.ac.uk/ma2mo/</t>
   </si>
   <si>
@@ -367,7 +364,7 @@
     <t xml:space="preserve">Julie</t>
   </si>
   <si>
-    <t xml:space="preserve">Université de Franche-Comté</t>
+    <t xml:space="preserve">Université de Franche-Comté, Besançon</t>
   </si>
   <si>
     <t xml:space="preserve">https://jtourniaire.github.io/</t>
@@ -529,6 +526,9 @@
     <t xml:space="preserve">zass@wias-berlin.de</t>
   </si>
   <si>
+    <t xml:space="preserve">kein Poster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Franck</t>
   </si>
   <si>
@@ -571,9 +571,6 @@
     <t xml:space="preserve">kern@wias-berlin.de</t>
   </si>
   <si>
-    <t xml:space="preserve">kein Poster</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wenzel</t>
   </si>
   <si>
@@ -665,6 +662,12 @@
   </si>
   <si>
     <t xml:space="preserve">spigno@evolbio.mpg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brhane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kewani Welay</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,6 +768,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -774,6 +781,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -900,10 +911,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -948,15 +959,15 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -968,7 +979,7 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -980,19 +991,19 @@
       <c r="G2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -1004,7 +1015,7 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1022,15 +1033,15 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -1042,7 +1053,7 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1060,15 +1071,15 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -1080,10 +1091,10 @@
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1096,13 +1107,13 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -1114,13 +1125,13 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="2" t="n">
@@ -1132,15 +1143,15 @@
       <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1152,7 +1163,7 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1170,15 +1181,15 @@
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -1190,7 +1201,7 @@
       <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1202,19 +1213,19 @@
       <c r="G8" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -1226,7 +1237,7 @@
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1244,15 +1255,15 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -1264,7 +1275,7 @@
       <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1282,15 +1293,15 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -1302,7 +1313,7 @@
       <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1320,15 +1331,15 @@
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -1340,7 +1351,7 @@
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1352,19 +1363,19 @@
       <c r="G12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -1376,7 +1387,7 @@
       <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1388,19 +1399,19 @@
       <c r="G13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -1412,7 +1423,7 @@
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1430,15 +1441,15 @@
       <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -1450,7 +1461,7 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1468,15 +1479,15 @@
       <c r="I15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -1488,7 +1499,7 @@
       <c r="C16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1506,15 +1517,15 @@
       <c r="I16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -1526,7 +1537,7 @@
       <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1544,15 +1555,15 @@
       <c r="I17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -1564,29 +1575,29 @@
       <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -1596,16 +1607,16 @@
         <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>35</v>
@@ -1616,34 +1627,34 @@
       <c r="I19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
+      <c r="D20" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>35</v>
@@ -1654,34 +1665,34 @@
       <c r="I20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>48</v>
@@ -1692,34 +1703,34 @@
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>79</v>
@@ -1730,70 +1741,70 @@
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>132</v>
+      <c r="F24" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35</v>
@@ -1804,34 +1815,34 @@
       <c r="I24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>25</v>
@@ -1839,35 +1850,35 @@
       <c r="H25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="2" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>25</v>
@@ -1878,34 +1889,34 @@
       <c r="I26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>25</v>
@@ -1916,34 +1927,34 @@
       <c r="I27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>150</v>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>25</v>
@@ -1951,134 +1962,136 @@
       <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="2" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>154</v>
+      <c r="D29" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>158</v>
+      <c r="D30" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -2090,7 +2103,7 @@
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2102,13 +2115,13 @@
       <c r="G33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
@@ -2120,23 +2133,23 @@
       <c r="C34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -2146,205 +2159,246 @@
         <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>201</v>
+      <c r="D39" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2394,8 +2448,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="210">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -82,21 +82,6 @@
     <t xml:space="preserve">ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Bansept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turing Center for Living Systems, Aix-Marseille Université</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://flobansept.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florence.bansept@imm.cnrs.fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wakolbinger</t>
   </si>
   <si>
@@ -548,9 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univesity of Freiburg</t>
   </si>
   <si>
     <t xml:space="preserve">https://pfaffelh.github.io/hp/adeosun.html</t>
@@ -800,124 +782,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
@@ -959,7 +835,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -969,7 +845,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -995,7 +871,7 @@
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1005,7 +881,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1019,10 +895,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>35</v>
@@ -1033,8 +909,8 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
@@ -1043,27 +919,25 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1071,9 +945,7 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +953,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1094,8 +966,10 @@
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="2" t="n">
@@ -1105,9 +979,11 @@
         <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1115,35 +991,35 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1153,35 +1029,33 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1191,7 +1065,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1205,19 +1079,21 @@
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1227,7 +1103,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1241,13 +1117,13 @@
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>19</v>
@@ -1255,7 +1131,7 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1265,7 +1141,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>63</v>
@@ -1293,7 +1169,7 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1303,7 +1179,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -1317,21 +1193,19 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1341,7 +1215,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1355,19 +1229,19 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>25</v>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1377,33 +1251,35 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="G13" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1413,7 +1289,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
@@ -1421,27 +1297,27 @@
         <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G14" s="2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -1451,21 +1327,21 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>88</v>
@@ -1477,9 +1353,9 @@
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -1489,7 +1365,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -1503,7 +1379,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>93</v>
@@ -1515,9 +1391,9 @@
         <v>19</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -1527,7 +1403,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -1540,22 +1416,18 @@
       <c r="D17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1565,7 +1437,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
@@ -1573,23 +1445,27 @@
         <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1599,24 +1475,24 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>35</v>
@@ -1625,9 +1501,9 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1637,35 +1513,35 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>35</v>
+      <c r="G20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -1675,7 +1551,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>112</v>
       </c>
@@ -1695,7 +1571,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>19</v>
@@ -1703,7 +1579,7 @@
       <c r="I21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -1713,7 +1589,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>117</v>
       </c>
@@ -1733,15 +1609,13 @@
         <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -1751,7 +1625,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>122</v>
       </c>
@@ -1767,17 +1641,19 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="G23" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -1787,7 +1663,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>127</v>
       </c>
@@ -1801,21 +1677,19 @@
         <v>130</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -1825,7 +1699,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>132</v>
       </c>
@@ -1839,7 +1713,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>136</v>
@@ -1850,8 +1724,10 @@
       <c r="H25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -1861,7 +1737,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -1875,7 +1751,7 @@
         <v>140</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>141</v>
@@ -1887,9 +1763,9 @@
         <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -1899,7 +1775,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -1907,16 +1783,16 @@
         <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>25</v>
@@ -1924,10 +1800,8 @@
       <c r="H27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -1937,35 +1811,31 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G28" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="3" t="s">
         <v>19</v>
       </c>
@@ -1975,109 +1845,115 @@
     </row>
     <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>167</v>
@@ -2087,13 +1963,15 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>169</v>
       </c>
@@ -2106,79 +1984,85 @@
       <c r="D33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>183</v>
       </c>
@@ -2186,195 +2070,191 @@
         <v>184</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="6"/>
+      <c r="K37" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="6"/>
+      <c r="K38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="6"/>
+      <c r="K39" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>204</v>
-      </c>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
@@ -2403,53 +2283,52 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.evolbio.mpg.de/person/59739/3255775"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://flobansept.github.io/"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://www.uni-frankfurt.de/115766952/Homepage_A__Wakolbinger"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://research.uni-luebeck.de/de/persons/matthew-buckland"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://www.smalldata-initiative.de/people/heinzel-carola/"/>
-    <hyperlink ref="F6" r:id="rId6" display="carola.heinzel@stochastik.uni-freiburg.de"/>
-    <hyperlink ref="D7" r:id="rId7" display="https://www.stats.ox.ac.uk/people/dr-felix-foutel-rodier"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://perso.math.u-pem.fr/tran.viet-chi/"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://le.ac.uk/people/fabian-freund"/>
-    <hyperlink ref="D12" r:id="rId12" display="https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney"/>
-    <hyperlink ref="D13" r:id="rId13" display="https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab"/>
-    <hyperlink ref="D14" r:id="rId14" display="https://homepage.univie.ac.at/florin.boenkost/"/>
-    <hyperlink ref="D15" r:id="rId15" display="https://www.evolbio.mpg.de/person/12087/15650"/>
-    <hyperlink ref="D16" r:id="rId16" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
-    <hyperlink ref="D17" r:id="rId17" display="https://www.staff.uni-mainz.de/birkner/"/>
-    <hyperlink ref="D18" r:id="rId18" display="https://www.polytechnique.edu/annuaire/esser-manuel"/>
-    <hyperlink ref="D19" r:id="rId19" display="https://people.bath.ac.uk/ma2mo/"/>
-    <hyperlink ref="D20" r:id="rId20" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
-    <hyperlink ref="D21" r:id="rId21" display="https://jtourniaire.github.io/"/>
-    <hyperlink ref="D22" r:id="rId22" display="https://perso.ens-lyon.fr/helene.leman/"/>
-    <hyperlink ref="D23" r:id="rId23" display="https://www.normalesup.org/~alouvet/home.html"/>
-    <hyperlink ref="D24" r:id="rId24" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
-    <hyperlink ref="F24" r:id="rId25" display="meike.wittmann@uni-bielefeld.de"/>
-    <hyperlink ref="D25" r:id="rId26" display="https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html"/>
-    <hyperlink ref="D26" r:id="rId27" display="https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html"/>
-    <hyperlink ref="D27" r:id="rId28" display="https://search.asu.edu/profile/5115356"/>
-    <hyperlink ref="D28" r:id="rId29" display="https://www.uni-frankfurt.de/117025373/Prof_Dr_Jochen_Blath"/>
-    <hyperlink ref="D29" r:id="rId30" display="https://www.math.uni-freiburg.de/cd2021/pfaffelhuber_de/"/>
-    <hyperlink ref="D30" r:id="rId31" display="https://www.math.uni-luebeck.de/mitarbeiter/pokalyuk/index.php"/>
-    <hyperlink ref="D31" r:id="rId32" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
-    <hyperlink ref="D32" r:id="rId33" display="https://www.wias-berlin.de/~zass/?lang=0"/>
-    <hyperlink ref="D33" r:id="rId34" display="https://research.uni-luebeck.de/de/persons/sascha-josef-franck"/>
-    <hyperlink ref="D34" r:id="rId35" display="https://pfaffelh.github.io/hp/adeosun.html"/>
-    <hyperlink ref="D35" r:id="rId36" display="https://www.mi.fu-berlin.de/math/groups/stoch/members/PostDoc/Kern_J.html"/>
-    <hyperlink ref="D36" r:id="rId37" display="https://ufind.univie.ac.at/de/person.html?id=1004358"/>
-    <hyperlink ref="D37" r:id="rId38" display="https://w-dasilva.github.io/"/>
-    <hyperlink ref="D39" r:id="rId39" display="https://www.evolbio.mpg.de/person/137852/3753875"/>
-    <hyperlink ref="D40" r:id="rId40" display="https://www.b-tu.de/fg-wirtschaftsmathematik/forschung/vortraege/msc-ibrahim-mbouandi-njiasse"/>
-    <hyperlink ref="D41" r:id="rId41" display="https://www.evolbio.mpg.de/person/137857"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.uni-frankfurt.de/115766952/Homepage_A__Wakolbinger"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://research.uni-luebeck.de/de/persons/matthew-buckland"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.smalldata-initiative.de/people/heinzel-carola/"/>
+    <hyperlink ref="F5" r:id="rId5" display="carola.heinzel@stochastik.uni-freiburg.de"/>
+    <hyperlink ref="D6" r:id="rId6" display="https://www.stats.ox.ac.uk/people/dr-felix-foutel-rodier"/>
+    <hyperlink ref="D7" r:id="rId7" display="https://perso.math.u-pem.fr/tran.viet-chi/"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
+    <hyperlink ref="D9" r:id="rId9" display="https://www.biozentrum.uni-wuerzburg.de/cctb/people/gokhale-chaitanya-prof-dr/"/>
+    <hyperlink ref="D10" r:id="rId10" display="https://le.ac.uk/people/fabian-freund"/>
+    <hyperlink ref="D11" r:id="rId11" display="https://www.umpa.ens-lyon.fr/umpa/annuaire/brouard-vianney"/>
+    <hyperlink ref="D12" r:id="rId12" display="https://www.cmfi.uni-tuebingen.de/forschung/nachwuchsgruppen/baumdicker-lab"/>
+    <hyperlink ref="D13" r:id="rId13" display="https://homepage.univie.ac.at/florin.boenkost/"/>
+    <hyperlink ref="D14" r:id="rId14" display="https://www.evolbio.mpg.de/person/12087/15650"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://boku.ac.at/personen/person/C55549F0B13A76B2"/>
+    <hyperlink ref="D16" r:id="rId16" display="https://www.staff.uni-mainz.de/birkner/"/>
+    <hyperlink ref="D17" r:id="rId17" display="https://www.polytechnique.edu/annuaire/esser-manuel"/>
+    <hyperlink ref="D18" r:id="rId18" display="https://people.bath.ac.uk/ma2mo/"/>
+    <hyperlink ref="D19" r:id="rId19" display="https://homepage.univie.ac.at/emmanuel.schertzer/"/>
+    <hyperlink ref="D20" r:id="rId20" display="https://jtourniaire.github.io/"/>
+    <hyperlink ref="D21" r:id="rId21" display="https://perso.ens-lyon.fr/helene.leman/"/>
+    <hyperlink ref="D22" r:id="rId22" display="https://www.normalesup.org/~alouvet/home.html"/>
+    <hyperlink ref="D23" r:id="rId23" display="https://ekvv.uni-bielefeld.de/pers_publ/publ/PersonDetail.jsp?personId=109723209"/>
+    <hyperlink ref="F23" r:id="rId24" display="meike.wittmann@uni-bielefeld.de"/>
+    <hyperlink ref="D24" r:id="rId25" display="https://hest.ethz.ch/das-departement/personen0/personen-a-z/profil.MzQ0MTE4.TGlzdC8zMzQsLTE0NjgxMzI2MzQ=.html"/>
+    <hyperlink ref="D25" r:id="rId26" display="https://www.thee.iee.unibe.ch/about_us/team/staff/dr_das_suman/index_eng.html"/>
+    <hyperlink ref="D26" r:id="rId27" display="https://search.asu.edu/profile/5115356"/>
+    <hyperlink ref="D27" r:id="rId28" display="https://www.uni-frankfurt.de/117025373/Prof_Dr_Jochen_Blath"/>
+    <hyperlink ref="D28" r:id="rId29" display="https://www.math.uni-freiburg.de/cd2021/pfaffelhuber_de/"/>
+    <hyperlink ref="D29" r:id="rId30" display="https://www.math.uni-luebeck.de/mitarbeiter/pokalyuk/index.php"/>
+    <hyperlink ref="D30" r:id="rId31" display="https://www.mathematik.hu-berlin.de/de/forschung/forschungsgebiete/stochastik/stoch-employees"/>
+    <hyperlink ref="D31" r:id="rId32" display="https://www.wias-berlin.de/~zass/?lang=0"/>
+    <hyperlink ref="D32" r:id="rId33" display="https://research.uni-luebeck.de/de/persons/sascha-josef-franck"/>
+    <hyperlink ref="D33" r:id="rId34" display="https://pfaffelh.github.io/hp/adeosun.html"/>
+    <hyperlink ref="D34" r:id="rId35" display="https://www.mi.fu-berlin.de/math/groups/stoch/members/PostDoc/Kern_J.html"/>
+    <hyperlink ref="D35" r:id="rId36" display="https://ufind.univie.ac.at/de/person.html?id=1004358"/>
+    <hyperlink ref="D36" r:id="rId37" display="https://w-dasilva.github.io/"/>
+    <hyperlink ref="D38" r:id="rId38" display="https://www.evolbio.mpg.de/person/137852/3753875"/>
+    <hyperlink ref="D39" r:id="rId39" display="https://www.b-tu.de/fg-wirtschaftsmathematik/forschung/vortraege/msc-ibrahim-mbouandi-njiasse"/>
+    <hyperlink ref="D40" r:id="rId40" display="https://www.evolbio.mpg.de/person/137857"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="211">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t xml:space="preserve">Julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FU Berlin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mi.fu-berlin.de/math/groups/stoch/members/PostDoc/Kern_J.html</t>
@@ -790,7 +793,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1836,14 +1839,12 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="K28" s="3"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>150</v>
       </c>
@@ -1868,9 +1869,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="K29" s="3"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2001,7 +2000,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
@@ -2009,14 +2008,14 @@
         <v>174</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>163</v>
@@ -2033,25 +2032,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2064,25 +2063,25 @@
     </row>
     <row r="36" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2095,18 +2094,18 @@
     </row>
     <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>168</v>
@@ -2120,22 +2119,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>168</v>
@@ -2149,22 +2148,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>168</v>
@@ -2178,20 +2177,20 @@
     </row>
     <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>168</v>
@@ -2205,10 +2204,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
@@ -2216,7 +2215,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>168</v>
@@ -2228,13 +2227,13 @@
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>

--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="211">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -740,7 +740,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -769,10 +769,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +786,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2202,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>206</v>
       </c>
@@ -2223,7 +2219,9 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
@@ -2244,7 +2242,9 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -2278,6 +2278,9 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K67" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sprecher.xlsx
+++ b/sprecher.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="214">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kewani Welay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsharma@evolbio.mpg.de</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2246,19 +2255,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
+    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
+      <c r="K43" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2324,6 +2346,8 @@
     <hyperlink ref="D38" r:id="rId38" display="https://www.evolbio.mpg.de/person/137852/3753875"/>
     <hyperlink ref="D39" r:id="rId39" display="https://www.b-tu.de/fg-wirtschaftsmathematik/forschung/vortraege/msc-ibrahim-mbouandi-njiasse"/>
     <hyperlink ref="D40" r:id="rId40" display="https://www.evolbio.mpg.de/person/137857"/>
+    <hyperlink ref="D43" r:id="rId41" display="https://www.evolbio.mpg.de/person/137857"/>
+    <hyperlink ref="F43" r:id="rId42" display="nsharma@evolbio.mpg.de"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
